--- a/biology/Biologie cellulaire et moléculaire/PhoQ/PhoQ.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/PhoQ/PhoQ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les protéines du système PhoP/PhoQ forment un système à deux composants (capteur-effecteur) permettant la régulation de la transcription des gènes. C'est chez la salmonelle que furent découvertes ces protéines qui permettent la résistance bactérienne dans les macrophages.
 </t>
@@ -511,7 +523,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Miller SI, Kukral AM, Mekalanos JJ. A two-component regulatory system (phoP phoQ) controls Salmonella typhimurium virulence. Proceedings of the National Academy of Sciences of the United States of America. 1989;86(13):5054-5058.en ligne
 Derzelle S, Turlin E, Duchaud E, et al. The PhoP-PhoQ Two-Component Regulatory System of Photorhabdus luminescens Is Essential for Virulence in Insects. Journal of Bacteriology. 2004;186(5):1270-1279. doi:10.1128/JB.186.5.1270-1279.2004.en ligne
